--- a/data/trans_dic/P56$pareja-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P56$pareja-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,3; 64,53</t>
+          <t>7,17; 57,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>29,55; 90,04</t>
+          <t>29,78; 89,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>38,57; 78,39</t>
+          <t>38,59; 78,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,9; 33,51</t>
+          <t>8,25; 31,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,25</t>
+          <t>0,0; 40,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,29; 42,48</t>
+          <t>16,41; 43,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,56; 32,03</t>
+          <t>8,19; 33,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,2; 19,04</t>
+          <t>7,87; 19,13</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,92; 36,82</t>
+          <t>8,74; 35,92</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>22,38; 47,4</t>
+          <t>21,25; 48,39</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>19,64; 43,31</t>
+          <t>20,39; 42,98</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>9,32; 19,5</t>
+          <t>9,65; 19,7</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>32,0; 85,7</t>
+          <t>32,32; 79,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,82; 52,93</t>
+          <t>16,47; 52,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,93; 46,68</t>
+          <t>8,9; 51,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,79; 43,16</t>
+          <t>14,89; 42,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,58; 39,13</t>
+          <t>7,46; 42,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,74; 19,98</t>
+          <t>4,55; 19,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,95; 32,52</t>
+          <t>4,9; 31,57</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,55; 27,98</t>
+          <t>14,29; 27,56</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>19,94; 50,39</t>
+          <t>20,06; 49,12</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>10,18; 26,62</t>
+          <t>10,86; 27,25</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>8,69; 34,26</t>
+          <t>8,64; 33,13</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>16,34; 29,4</t>
+          <t>16,78; 29,12</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,67; 76,27</t>
+          <t>10,78; 75,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,91; 77,56</t>
+          <t>17,7; 77,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>22,61; 70,8</t>
+          <t>23,54; 70,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>32,58; 69,54</t>
+          <t>34,18; 71,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,26</t>
+          <t>0,0; 27,2</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,86; 25,56</t>
+          <t>5,02; 26,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,72; 30,92</t>
+          <t>5,67; 32,94</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,11; 20,85</t>
+          <t>6,04; 21,43</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,16; 35,67</t>
+          <t>6,12; 35,56</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>11,41; 35,62</t>
+          <t>11,36; 36,29</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>14,93; 40,85</t>
+          <t>15,85; 41,35</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>16,99; 34,52</t>
+          <t>16,28; 34,47</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,84; 62,87</t>
+          <t>18,54; 63,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>24,85; 73,03</t>
+          <t>23,57; 72,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>32,21; 79,28</t>
+          <t>34,77; 82,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>34,42; 62,0</t>
+          <t>33,87; 61,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,52</t>
+          <t>0,0; 17,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,85; 20,3</t>
+          <t>3,87; 21,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,04; 22,88</t>
+          <t>2,29; 24,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,3; 18,74</t>
+          <t>8,2; 19,22</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,95; 26,58</t>
+          <t>7,3; 26,87</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>11,43; 32,13</t>
+          <t>11,75; 33,24</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>11,72; 32,56</t>
+          <t>13,03; 35,36</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>17,21; 29,52</t>
+          <t>17,05; 28,9</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>27,88; 54,29</t>
+          <t>28,42; 56,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>30,44; 55,7</t>
+          <t>30,3; 55,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>37,16; 59,75</t>
+          <t>36,82; 59,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>28,84; 43,51</t>
+          <t>28,63; 44,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,24; 20,78</t>
+          <t>6,22; 19,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,99; 20,21</t>
+          <t>9,84; 20,17</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,91; 20,91</t>
+          <t>8,65; 20,57</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>11,77; 18,11</t>
+          <t>12,01; 17,96</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>16,13; 29,62</t>
+          <t>15,67; 28,44</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>16,66; 27,62</t>
+          <t>17,51; 28,33</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>18,48; 29,97</t>
+          <t>18,6; 30,21</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>17,79; 24,2</t>
+          <t>17,78; 24,13</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que, al menos, le ayuda su pareja cuando tiene dificultades en la actividades básicas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>3775</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6384</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>11329</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>4469</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>2051</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>12665</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>6961</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>7757</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>5827</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>19048</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>18289</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>12226</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>938; 7519</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3153; 9524</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>7322; 14848</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>2069; 7965</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6613</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>7566; 20007</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>3263; 13155</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>4870; 11833</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>2576; 10588</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>12052; 27437</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>11986; 25267</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>8394; 17124</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>8823</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>10719</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>4907</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>6698</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>5411</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>6469</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>6267</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>13840</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>14234</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>17188</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>11174</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>20538</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>4838; 11943</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>5336; 17091</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1736; 9990</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>3638; 10398</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2041; 11495</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>2990; 13020</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2011; 12966</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>9563; 18442</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>8495; 20795</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>10645; 26725</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>5234; 20066</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>15330; 26602</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>2616</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>6450</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>8291</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>10390</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1470</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>5407</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>5394</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>5103</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>4085</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>11857</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>13686</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>15493</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>749; 5225</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2474; 10804</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4138; 12476</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6938; 14562</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4800</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2118; 11113</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1986; 11543</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2550; 9048</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1506; 8747</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>6379; 20382</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>8342; 21763</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>10180; 21551</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>4989</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>10085</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>9453</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>15163</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1821</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>5164</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>5571</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>10215</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>6810</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>15249</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>15023</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>25377</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2459; 8360</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>5078; 15607</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>5579; 13286</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>10921; 19671</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5525</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1985; 11084</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1282; 13520</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>6563; 15386</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>3315; 12201</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>8557; 24205</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>9367; 25423</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>19143; 32456</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>20202</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>33638</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>33980</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>36720</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>10754</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>29704</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>24193</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>36915</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>30956</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>63342</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>58173</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>73635</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>13721; 27095</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>23790; 43266</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>26543; 42937</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>29216; 45587</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>5814; 18067</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>20190; 41405</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>14854; 35333</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>30139; 45077</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>22230; 40330</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>49691; 80387</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>45362; 73683</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>62793; 85196</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>